--- a/biology/Zoologie/Gephyromantis_leucocephalus/Gephyromantis_leucocephalus.xlsx
+++ b/biology/Zoologie/Gephyromantis_leucocephalus/Gephyromantis_leucocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis leucocephalus est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis leucocephalus est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 900 m d'altitude dans le sud-est de l'île, du parc national de Midongy du sud à Tôlanaro[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 900 m d'altitude dans le sud-est de l'île, du parc national de Midongy du sud à Tôlanaro.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angel, 1930 : Sur la validité du genre Gephyromantis (Batraciens) et diagnoses de deux espèces et d'une variété nouvelle de ce genre. Bulletin de la Société Zoologique de France, vol. 55, no 7, p. 548-553.</t>
         </is>
